--- a/data_year/zb/国民经济核算/国际收支平衡表/贷方/贷方储备资产.xlsx
+++ b/data_year/zb/国民经济核算/国际收支平衡表/贷方/贷方储备资产.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -493,23 +493,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>101643.88544995</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3500</v>
+        <v>55125.671117267</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>187.552126572001</v>
+        <v>46518.2143326829</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -518,23 +518,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18425.924399466</v>
+        <v>1355102.842227</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18425.924399466</v>
+        <v>161593.241884</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1124046</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>69463.6003429999</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26600</v>
+        <v>132025.990088</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>18500</v>
+        <v>111370.00259</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8100</v>
+        <v>20655.9874979999</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -568,273 +568,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48700</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
+        <v>3122789.94852187</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>48700</v>
+        <v>133450.275378445</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2975457</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>194400</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>192900</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1499.99999999999</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>64597</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>31009</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>33588</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>47898.3166799999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>44872.71668</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3025.6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10498.61727</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4568.4144</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5930.20287</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14132.59291</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11597.12217</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2535.47074</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>101643.88544995</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55125.671117267</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>46518.2143326829</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1355102.842227</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>161593.241884</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1124046</v>
-      </c>
-      <c r="F14" t="n">
-        <v>69463.6003429999</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>132025.990088</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>111370.00259</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>20655.9874979999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3122789.94852187</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
-        <v>133450.275378445</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2975457</v>
-      </c>
-      <c r="F16" t="n">
         <v>13882.6731434289</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
